--- a/Code/Results/Cases/Case_1_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_142/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15.46388812271717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15.70147892709808</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.8914657067185</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>79.18329445036399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.506330476203962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>42.00370031271751</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>14.62529716494162</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>14.77592733642983</v>
+      </c>
+      <c r="E3">
+        <v>15.83773364141649</v>
+      </c>
+      <c r="F3">
+        <v>74.47837908689883</v>
+      </c>
+      <c r="G3">
+        <v>3.529805785378899</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>39.58439637612544</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>14.08227189835594</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>14.19414791763246</v>
+      </c>
+      <c r="E4">
+        <v>15.17352420103694</v>
+      </c>
+      <c r="F4">
+        <v>71.51645782996002</v>
+      </c>
+      <c r="G4">
+        <v>3.544608187503419</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>38.02187358361297</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>13.85402509191464</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>13.95385669039773</v>
+      </c>
+      <c r="E5">
+        <v>14.89868000058549</v>
+      </c>
+      <c r="F5">
+        <v>70.29197460439845</v>
+      </c>
+      <c r="G5">
+        <v>3.550743460503492</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>37.36626242879553</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>13.81570835831313</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.91376899661901</v>
+      </c>
+      <c r="E6">
+        <v>14.85279612538557</v>
+      </c>
+      <c r="F6">
+        <v>70.08762687775106</v>
+      </c>
+      <c r="G6">
+        <v>3.551768602166149</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>37.25627603765879</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>14.07922169300461</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>14.1909199868236</v>
+      </c>
+      <c r="E7">
+        <v>15.16983419960331</v>
+      </c>
+      <c r="F7">
+        <v>71.50001336761324</v>
+      </c>
+      <c r="G7">
+        <v>3.54469050522829</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>38.0131074349753</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>15.18063999774325</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>15.38523740816072</v>
+      </c>
+      <c r="E8">
+        <v>16.531783796978</v>
+      </c>
+      <c r="F8">
+        <v>77.57665559929748</v>
+      </c>
+      <c r="G8">
+        <v>3.514347576878945</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>41.18578900812582</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>17.11354650569209</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17.61545575248089</v>
+      </c>
+      <c r="E9">
+        <v>19.31299120419661</v>
+      </c>
+      <c r="F9">
+        <v>88.88891582150619</v>
+      </c>
+      <c r="G9">
+        <v>3.457655171938651</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>46.77879708202152</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>18.39153772040988</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>19.18354377081927</v>
+      </c>
+      <c r="E10">
+        <v>21.27254021223276</v>
+      </c>
+      <c r="F10">
+        <v>96.82025173967121</v>
+      </c>
+      <c r="G10">
+        <v>3.417293879054482</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>50.48748964831368</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>18.94157951104749</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>19.882254131257</v>
+      </c>
+      <c r="E11">
+        <v>22.13417988788829</v>
+      </c>
+      <c r="F11">
+        <v>100.375551308333</v>
+      </c>
+      <c r="G11">
+        <v>3.399104769743772</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>52.08534703260526</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>19.14533481162755</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>20.14485752328794</v>
+      </c>
+      <c r="E12">
+        <v>22.45650474274569</v>
+      </c>
+      <c r="F12">
+        <v>101.7602969162273</v>
+      </c>
+      <c r="G12">
+        <v>3.392231354933776</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>52.67744494452594</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>19.10165446781605</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>20.08838689763395</v>
+      </c>
+      <c r="E13">
+        <v>22.38725686955723</v>
+      </c>
+      <c r="F13">
+        <v>101.462669791035</v>
+      </c>
+      <c r="G13">
+        <v>3.393711204724962</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>52.55050504930288</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>18.95843357864185</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>19.90389753590305</v>
+      </c>
+      <c r="E14">
+        <v>22.16077511795529</v>
+      </c>
+      <c r="F14">
+        <v>100.4897481760506</v>
+      </c>
+      <c r="G14">
+        <v>3.398539064538483</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>52.13432002565247</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>18.87011552320572</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>19.79063869454599</v>
+      </c>
+      <c r="E15">
+        <v>22.02154308477912</v>
+      </c>
+      <c r="F15">
+        <v>99.89202405618641</v>
+      </c>
+      <c r="G15">
+        <v>3.401497817248198</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>51.87770123785358</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>18.35495817582639</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>19.13759617107814</v>
+      </c>
+      <c r="E16">
+        <v>21.21565760162241</v>
+      </c>
+      <c r="F16">
+        <v>96.58808562967803</v>
+      </c>
+      <c r="G16">
+        <v>3.418485183737173</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>50.38125698588416</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>18.03087938850337</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>18.73329891393025</v>
+      </c>
+      <c r="E17">
+        <v>20.71386519476749</v>
+      </c>
+      <c r="F17">
+        <v>94.54463780054199</v>
+      </c>
+      <c r="G17">
+        <v>3.428943406072497</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>49.44026495104964</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>17.8415306938715</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>18.49937118066546</v>
+      </c>
+      <c r="E18">
+        <v>20.42242412896504</v>
+      </c>
+      <c r="F18">
+        <v>93.36179555458587</v>
+      </c>
+      <c r="G18">
+        <v>3.4349755215375</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>48.89063678528515</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>17.77691535278064</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>18.41992635411241</v>
+      </c>
+      <c r="E19">
+        <v>20.32325310440074</v>
+      </c>
+      <c r="F19">
+        <v>92.96000312887567</v>
+      </c>
+      <c r="G19">
+        <v>3.437021072763376</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>48.70310536761536</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>18.06568338924196</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18.77647986625631</v>
+      </c>
+      <c r="E20">
+        <v>20.76757185299072</v>
+      </c>
+      <c r="F20">
+        <v>94.76293970079089</v>
+      </c>
+      <c r="G20">
+        <v>3.427828439454143</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>49.54130510658067</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>19.00062425561362</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19.9581391310594</v>
+      </c>
+      <c r="E21">
+        <v>22.22740299724493</v>
+      </c>
+      <c r="F21">
+        <v>100.7758883412918</v>
+      </c>
+      <c r="G21">
+        <v>3.397120702454084</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>52.25691677039575</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>19.5852293122187</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>20.74910251413693</v>
+      </c>
+      <c r="E22">
+        <v>23.158587716328</v>
+      </c>
+      <c r="F22">
+        <v>104.7815679004802</v>
+      </c>
+      <c r="G22">
+        <v>3.377129621580425</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>53.95605091192114</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>19.27564066207558</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>20.31388974404372</v>
+      </c>
+      <c r="E23">
+        <v>22.6635753317221</v>
+      </c>
+      <c r="F23">
+        <v>102.6506937227307</v>
+      </c>
+      <c r="G23">
+        <v>3.387795830744311</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>53.05615300520118</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>18.0499579405775</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>18.75696241281058</v>
+      </c>
+      <c r="E24">
+        <v>20.74330029734474</v>
+      </c>
+      <c r="F24">
+        <v>94.66427048517238</v>
+      </c>
+      <c r="G24">
+        <v>3.428332454230927</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>49.49565175058844</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>16.61539234780991</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>17.02453591620949</v>
+      </c>
+      <c r="E25">
+        <v>18.56303358944546</v>
+      </c>
+      <c r="F25">
+        <v>85.89552464546693</v>
+      </c>
+      <c r="G25">
+        <v>3.472732019469903</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>45.33509062920469</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
